--- a/Testdata/TC_37.xlsx
+++ b/Testdata/TC_37.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Fh0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyV2Ssi0Jow14k0KUFAWSqqy8FMPdkbj1XtidWUl8S4EEKdIURVE4RXpFn1IUqGu0CZDavfyXwJLdp/6Fnrns7C5JxVrVEKydc74zc+bMuc0IvXMV+MYFiakXhXuVes2qGCR0ItcLz/cqCTur1h9W3rFR78oh/hGOcUAYgA2QCunuFfX2KnPGFrumeXl5Wbts1qL43GxYVt18PBxMnDkJcNULKcOhQypayn27VMVGHTcYEoZdzLCU3Kv0J/1ah3hOF2hDHOJzEtfaCfVCQmkvZB7zCOWSMcGMdLrD78mN2Y3aw1odmWv0DNlOPN+VuAJS0hUOliVTLyB2w6pvV63tarM+tXZ2rebu1k7t0fb2e6mgBqIBpmxC4gvPEYQJw8FCiFvbzbq1YzW3dpC5EQRzZQaw0ch3x+TCo8TtEN+npSxiqgNsOQx2Xc6YFjJzsmqi+6twEOPFfOoxn5RTYzxsG0GodMkmsdF+FBMH7HcvlQ7J5ShWZp0uBsCdzr2YLbt4WXquY0ri0YIbqZyojbpRyFo+idnxAs6auOAKwLBZnBBk3sLMhLoedeDbCxPi2mfYp3mhAhOdRPETusAOOYQ4Nvkcl6EfYRccjnmUeU626BoDHcXRAmaExduR7+7DrAq8gaFn7odgYr5sO4qeZNptYiJxquJ84UwDzFL4Gh1N5tHlKPSXk2RGndibEbfbTtEbeYgHpJLuJJRFAWiRkZCk5ShL+AcBuEpGXeJ4AfaPfDAitZswS4GAWgmLzjzWifwkCGmq0woVncCOpuRK71CP0QgON+RGj8J+mOKlmTeyigLj6FKvuc4QRsiRW9TRJ7LOWUV3gaacY50hToTvct/zoT7kzyJHLXrFZE4I2+gSkoN4KtznFcdu+T4ysyECtwTXBjVsC4pGVfxMLWtX/MCymo16oXs7LmWiwyQYzSB8L8SG7DrwVkgItuC3fRw+AeqJx+aHrVT1DRwkN3wrfp2HIFAXPl4KsjZKnob6oeMnLpHx3w/PhEdy3eSp3MpGa6QBhLSNcLicLheQhqm3y+BjrwKFeZeyGEp/xXaiJGTxkicKZCro22RoMgvFAti/s8xZTH6YQMex3E9CpxO5d1/NldY5Dj12dw2jJJbZ7+4iwno8ESa0S3hKETn+zvJOmT3RuBQ8CEkQhZ5zd2uDkbn27j02QtOourMEkfF1Z7wPZVxWOR7rdxaLoV2EulZqmRalkeMJZ1Xh4ebkzVtCpkvOcOJDq8agop7rVLtKRi36ZBWTJ6Hj2E8Tns0bYQqdsOMGNQd6Bd7t1Zwo4AQTGtCTCTLzeN7wOKQXng9weJ5AS6Hzyipdp1teDqcxDinfju4gVjLvZhBK85TsbGyZvEaJcASZvCLgInMFh6YkWEQx9odgGG9fuZ1qj6DzGGI2VyMoZT5xUiObmaiWKmqWKv42mKhJchs84FWaXCEKEN+L7LkzTEZDfJdDCEu/g31vFsusmlbuTTw4sKwXTPMv31zJvjA9A7h3QbH9LlnyZjwbKLpw2XrKkA7ME6k9GW9tNx5YzQY0MnyMxI7HBPtGD4KZEaMfXhDKAhDbNcaEei58edjfNd4lM+JBERQmUmWotHReDu2neV6o0gJ9i5QiANqLcw/KyDpQczIB+5Tg2F/mgHKrg8gB3M2P/339m+evXnx+8/HTN19+8N9//OrVP392/exD+Lj569+uP/ml3KYEoyme+UQoNG1vb8PtDPxMkxA3rik6YTdxmKCdnooGWI+RuseJQafX7xwM2iKfaGIqLkuKya+IyyjJhhO5CbGQOFIz9QQJsadpflLjAjdXomx+ZbsgRXSef5ugtMXrl5+/fvnnW6WVwbJeq76z86Bab7y1FYPLb30Np1uxQaEGcPBW1XpQbTRy4BUMGssCoO3Ud21xt240rbrO5a525E2gVZaaaYrPzRU5SerI9ki7QH6cMoXjTyFENFuGQm6gXPTLn7z5y9MCSllXUYqzgHKijeGLmelATH04nhqT0fG40zOmvQn3k4yXw8nJvwGsVtfxVHCqMEyw/x0DijsUM6MCF6CKEZ0ZBDtzYwmRmIvDgrNtosqF7jnlqpYHcZQs5InkBDLqBqTOJhslNuQawRP2XEs6GWsDXOp6/fcvNgmojXSzhlY/d+RpqMCRpBxfRe1n/3r11UevXry4ef7z669+VJhBraNfAcDPIZryQ+32kPJUvVmhoJOJMOYT6/u5+qKI/CJ1FHkho3b9obhDqREC0TqfTfxG/QBKnphY2AvoKxT0Lqa9K6YC2z5EZpEAei4wVNsou2pqgszhmV3/89vf3fz6i5tPn7/56E/XH//x+pNPX7/8/Ztnf5BRd/P0+c1Pn6ksv1oIhC78AiubQEM8hzgGj0aD127j6/d/YYQRM6DlMBKRkb5+/7PcZFxR0ZxkM0NLpxUpqrAGzQtzOSOnitahIKdFZAPQ4SWsqRGqiEULz8kWea/Kp+JxJxjf6k+rCSVGBN3Ut2EnRXAmfFc5JSJL6tEjq1FvKK7Uhm9hhmnO9Ad+NIMmI2WI94YVSEHqmwUyrFjvYDBqtwYZRCoxil0SczeUHyhtKXlJ6dN0lLpajgJcaPycxOdPRGuwdZaeOZfGTPXUctZyefrb/FRRQKBOEseyIQrV0/0kWUAznL7I3c4Xr5S5/vdQ9qr5jjgb97tFPoxzXCiERTYnCL5ITYol01Sf8mcd2c4ectNkQ+AVXjbBHOp1XnZaF9BXxibPO704juKNySfjpLAhdNKQUczM4hojzlR23W52VikhTXj6Q9781A6jLvEJK/d0bWbSw+ji3rJw9mVF+3Tku8qY5a4e2izZBPn3e+4o/+/zvXS2VhxDY8Xf+0q/t6cX1zHcd0tqI7ciBPkNEFZXD+L7XkzZY54J1JeknGrKqexQH/MLl/wQ41N7SxEAYOZnNwtqpqHL5F9RIn/gBV7Ja6GVxndxErDlYiFbuH45T+Gl5ZBcQYOZmwGS4uwHUDbkO0qZ2aTDQi7V8vztknrnc1ZWsUczTFwys6rOjDSqW661Xd0hpFmt1+F/7DQalvWAv3yqySFzeOSy5CJmemDZXzft/wEAkSb/Fh0AAA==</t>
+          <t>Dx8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqd0lJVkSxhtQJOUQpURBpGorL8VwdyhNNdxld2Yl8S0FEqRIUxRF4RTpFX1KUaCu0SZAavfyXwJLdp/6F3rmsjeSirWqIcA75zZnzpw555sheudqyqwLEnMahQ9r7ppTs0joRwENTx/WEjGpu5u1dzzUvfIJO8QxnhIBwhZohXznitOHtTMhZju2fXl5uXbZXIviU7vhOK79ZL8/9M/IFNdpyAUOfVLLtIK3a9U81A6m+0TgAAusNR/WesPeWptQvwO0fRziUxKv7SachoTzbiiooIRLzZhgQdqd/e/phXmNtc01F9lL9FxyN6Es0HIlSU03cjAtGdEp8RpOw6k7W/XG+sh1d9yNnfXNtQfr2++lipkg6mMuhiS+oL4iDAWezpS6s9VYd113Y30T2SuFwFYeAA8NWHBELignQZswxitFxDYb2PIFrLpaMB1kF3SNofu78CjGs7MRFYxUVd+LYuJDoO419wG5HMQmfqNZH7ijMxqLeQfPK9s65iQezGQ0qql6qBOFosVILI5nsKkkgD0HhifihCD7Fmau1KHch28aJiTwJpjxolKJiR5H8TmfYZ8cwIG1pY3LkEU4gMwSlAvq55MuMdBhHM3AIky+G7FgD6wa4RWMzHIvhBDLaXej6Dz3bhUTqRxQ2QB7OsUiFV+io+FZdDkI2XyYjLkf0zEJOrup9EoekifPaLcTLqIpeJGTkKYVKHP4BydtkYw6xKdTzA4ZBJF7TbBSIqBWIqIJFe2IJdOQpz4tUNFjWNGIXGUrzMZoAJsbyqBHYS9M5XWYV7LKCkfRZTbnMkMFoUBucT/bkWXOonQHaCY5lhlqR+Qq9yiDRlDciwK1nBXDM0LEypTQHCRr3p5sLV6LMWTnQwRpCakNbngOdIe6+hs5zo76g2kzNuqGwe1yKRMdJNPBGI7vhVqQ5wJvgYRgCWyX4fAcqI+pODtopa6v4CC94Fvll3kIDuqM4bkiZ0Ep0lAv9FkSEH3+e+FEZaT0Te/KrWy0ROrDkfYQDuej+QzqLac7Aj4e1qAD73ARQ4+veX6UhCKey0KBbCP6Nh2ejEM1AWZ31pnE5IcJQIv5XhL67Si4+2yBjs5xSMXdPYySWFe/u6uo6MlCmPAOkSVF1fg76/tV1sTjSuLTkEyjkPp3jzYEWXof3GMhPD1Vd9Yg+nzdWZ5BG9ddTp71O6vFgAuhr1WapsV55FOVrOZ4BAV9+5Yj0yETnDDAZAI66mlWahfJqMXPF2WKJHQcs7TgeRLxcoC8fjBd8wErSFi35kdTSbABaT4eIrsoLwGPT7rhaR+HpwlAiqyuLNKzcivb4SjGIZfLyRDEQuVdLYTSOqWRjaeL1yBRiaCLVwRcZC/IoRGZzqIYs30IDN0zaWfgESCPfSzOzAhaGSN+GmQ7V820yp6ljr9NTPUkvQx54E2ZXCAqIbkWDa5zmZyG5Cr34ViyNmZ0HOuqmnbuVTzYsBwLpvVXLq4iLkz3AC5Y0Gy/S+YSdecDQ1cp66YMncCykHrDo/WtxobTbACQkWOkVnxEMLO6cJgFsXrhBeFiCmo71hHhNIAvitmO9S4ZEwpNUIXItKHK2kU9tJfWeeVKC/wtU8oCAC9OKbSRZcGMkyt4JwTHbF4Q1EvtRz7I3fz439e/ef7qxec3Hz998+UH//3Hr17982fXzz6Ej5u//u36k1/qZWphNMJjRpRDo92tLae5DnmWkZAMrq2QcJD4QtFOThQAzsbIXNjUoN3ttR/1d1U9yYipum4ptrwLzqMkHw71ItREakvtNBO0iDdK65MZl7iFFuXJu9kFKUsX+bcp6li8fvn565d/vlXbBCzHWu729kbdbbwVijUc112Sy6BYv9QDpPB63dmoNxoF4QUZdKQbQBanXuA1XWfbaTQdN6vlQZbIq4QWWcbSCJ/aC3qa1NbwKEuB4jhlqsQfwRHJ2PooFAYmRb/8yZu/PC1JmegaStkKOKdgjJzMTgfK9MHRyBoOjo/aXWvUHco8yXkFOW38G4TN7Nl5KiVVGCaYfceC5g7NzKrBBahmRROLYP/MmsNJLJzDUrKtouqJ7mly0ctHcZTM9I4UFHLqCsmsmqzUWFFrFE/Fc6no5KwV4trX679/sUrBLKSTA1rvaH/XmoZZXioaKnE0qcA3p/azf7366qNXL17cPP/59Vc/Klkw82SvAJDncJqKwyztoeSZfrNAQY+HKpjnzvcL/cUQ5UXqMKKh4J67qe5QZoRA1ZXW1P+oN4WWpwyreAF9gYLexbx7JczB9g6QXSaAnzMM3TbKr5oZQdfwPK7/+e3vbn79xc2nz9989Kfrj/94/cmnr1/+/s2zP+hTd/P0+c1Pn5kqv9gIlC/yAqtBoKWeQ3xLnkZL9m7r6/d/YYWRsAByWImqSF+//1nBmHRUgZPcMkC6zJGyC0uiRWWpZxVcyXwo6WUqGgC0ZQtrZhKmiUUz6ueTvFeXpuS5U4xv9Ub1hBMrAjT1bVhJWThXvqueUdEt9fCB03Abhqu9kUsYY14I/SMWjQFkpAz13rAgUtL6ZoVcVs33qD/YbfVzEe3EIA5ILNNQf6AeT0Flml4FCnAB7PkJk89CS2LLLJR+FUqXbZ5XJq1AlrzVzxMlCdRO4liDoNC8yw+TGQDg9BXudr56mSxg3gONT4soOB/3OmU+jAtcaH5ltiQovipHhqVLU4/LpxwNYQ9kaPIh8EqvmRAO8/Su0dUFYMnYlrWmG8dRvLLg5JxUbB/QM1QRO494JmPLKTXSDvK9Sglpkcs+9G3PrDDqEEZE5XfpVHs/uri3Lux9VdUeH7DABLPadSMLS26g+DgvE6WqM604BtgkX/Mqv6b3aXjeq7Z6z99sku3JpLkVNDdwg+BJsPlgy3HHZBwED9wNAI7KqLx9ShPy5iLvbtUmAbBYVs/v2Udw865oTQdYKcq7KERKHUhT2LMx2qMxF09kiTJfmnKSUU40dH4i/dMfanzirRsCCNjFyeyS12l9Efp3nIj16ZRWvK86aREqG4E0mM00tqy6odDzDsgVIN+CBajW4x9AP9MPPFWs6VMFRT7TT20Nk3Flc3aqfAh8mVj30+4GgMvur61+FaHs/3BAIa/7muiFnJ6eiar72tjebpJN0qg3Jr5fX4dBHbrxuB7gybbrOJNmsNGQL9rGOHQHSi4rTiJ7CuVwr6iuZy/8rO39D1DITmIPHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -806,4 +806,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{130D613E-7E14-49CE-8719-3901DDEE27A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_37.xlsx
+++ b/Testdata/TC_37.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Dx8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqd0lJVkSxhtQJOUQpURBpGorL8VwdyhNNdxld2Yl8S0FEqRIUxRF4RTpFX1KUaCu0SZAavfyXwJLdp/6F3rmsjeSirWqIcA75zZnzpw555sheudqyqwLEnMahQ9r7ppTs0joRwENTx/WEjGpu5u1dzzUvfIJO8QxnhIBwhZohXznitOHtTMhZju2fXl5uXbZXIviU7vhOK79ZL8/9M/IFNdpyAUOfVLLtIK3a9U81A6m+0TgAAusNR/WesPeWptQvwO0fRziUxKv7SachoTzbiiooIRLzZhgQdqd/e/phXmNtc01F9lL9FxyN6Es0HIlSU03cjAtGdEp8RpOw6k7W/XG+sh1d9yNnfXNtQfr2++lipkg6mMuhiS+oL4iDAWezpS6s9VYd113Y30T2SuFwFYeAA8NWHBELignQZswxitFxDYb2PIFrLpaMB1kF3SNofu78CjGs7MRFYxUVd+LYuJDoO419wG5HMQmfqNZH7ijMxqLeQfPK9s65iQezGQ0qql6qBOFosVILI5nsKkkgD0HhifihCD7Fmau1KHch28aJiTwJpjxolKJiR5H8TmfYZ8cwIG1pY3LkEU4gMwSlAvq55MuMdBhHM3AIky+G7FgD6wa4RWMzHIvhBDLaXej6Dz3bhUTqRxQ2QB7OsUiFV+io+FZdDkI2XyYjLkf0zEJOrup9EoekifPaLcTLqIpeJGTkKYVKHP4BydtkYw6xKdTzA4ZBJF7TbBSIqBWIqIJFe2IJdOQpz4tUNFjWNGIXGUrzMZoAJsbyqBHYS9M5XWYV7LKCkfRZTbnMkMFoUBucT/bkWXOonQHaCY5lhlqR+Qq9yiDRlDciwK1nBXDM0LEypTQHCRr3p5sLV6LMWTnQwRpCakNbngOdIe6+hs5zo76g2kzNuqGwe1yKRMdJNPBGI7vhVqQ5wJvgYRgCWyX4fAcqI+pODtopa6v4CC94Fvll3kIDuqM4bkiZ0Ep0lAv9FkSEH3+e+FEZaT0Te/KrWy0ROrDkfYQDuej+QzqLac7Aj4e1qAD73ARQ4+veX6UhCKey0KBbCP6Nh2ejEM1AWZ31pnE5IcJQIv5XhL67Si4+2yBjs5xSMXdPYySWFe/u6uo6MlCmPAOkSVF1fg76/tV1sTjSuLTkEyjkPp3jzYEWXof3GMhPD1Vd9Yg+nzdWZ5BG9ddTp71O6vFgAuhr1WapsV55FOVrOZ4BAV9+5Yj0yETnDDAZAI66mlWahfJqMXPF2WKJHQcs7TgeRLxcoC8fjBd8wErSFi35kdTSbABaT4eIrsoLwGPT7rhaR+HpwlAiqyuLNKzcivb4SjGIZfLyRDEQuVdLYTSOqWRjaeL1yBRiaCLVwRcZC/IoRGZzqIYs30IDN0zaWfgESCPfSzOzAhaGSN+GmQ7V820yp6ljr9NTPUkvQx54E2ZXCAqIbkWDa5zmZyG5Cr34ViyNmZ0HOuqmnbuVTzYsBwLpvVXLq4iLkz3AC5Y0Gy/S+YSdecDQ1cp66YMncCykHrDo/WtxobTbACQkWOkVnxEMLO6cJgFsXrhBeFiCmo71hHhNIAvitmO9S4ZEwpNUIXItKHK2kU9tJfWeeVKC/wtU8oCAC9OKbSRZcGMkyt4JwTHbF4Q1EvtRz7I3fz439e/ef7qxec3Hz998+UH//3Hr17982fXzz6Ej5u//u36k1/qZWphNMJjRpRDo92tLae5DnmWkZAMrq2QcJD4QtFOThQAzsbIXNjUoN3ttR/1d1U9yYipum4ptrwLzqMkHw71ItREakvtNBO0iDdK65MZl7iFFuXJu9kFKUsX+bcp6li8fvn565d/vlXbBCzHWu729kbdbbwVijUc112Sy6BYv9QDpPB63dmoNxoF4QUZdKQbQBanXuA1XWfbaTQdN6vlQZbIq4QWWcbSCJ/aC3qa1NbwKEuB4jhlqsQfwRHJ2PooFAYmRb/8yZu/PC1JmegaStkKOKdgjJzMTgfK9MHRyBoOjo/aXWvUHco8yXkFOW38G4TN7Nl5KiVVGCaYfceC5g7NzKrBBahmRROLYP/MmsNJLJzDUrKtouqJ7mly0ctHcZTM9I4UFHLqCsmsmqzUWFFrFE/Fc6no5KwV4trX679/sUrBLKSTA1rvaH/XmoZZXioaKnE0qcA3p/azf7366qNXL17cPP/59Vc/Klkw82SvAJDncJqKwyztoeSZfrNAQY+HKpjnzvcL/cUQ5UXqMKKh4J67qe5QZoRA1ZXW1P+oN4WWpwyreAF9gYLexbx7JczB9g6QXSaAnzMM3TbKr5oZQdfwPK7/+e3vbn79xc2nz9989Kfrj/94/cmnr1/+/s2zP+hTd/P0+c1Pn5kqv9gIlC/yAqtBoKWeQ3xLnkZL9m7r6/d/YYWRsAByWImqSF+//1nBmHRUgZPcMkC6zJGyC0uiRWWpZxVcyXwo6WUqGgC0ZQtrZhKmiUUz6ueTvFeXpuS5U4xv9Ub1hBMrAjT1bVhJWThXvqueUdEt9fCB03Abhqu9kUsYY14I/SMWjQFkpAz13rAgUtL6ZoVcVs33qD/YbfVzEe3EIA5ILNNQf6AeT0Flml4FCnAB7PkJk89CS2LLLJR+FUqXbZ5XJq1AlrzVzxMlCdRO4liDoNC8yw+TGQDg9BXudr56mSxg3gONT4soOB/3OmU+jAtcaH5ltiQovipHhqVLU4/LpxwNYQ9kaPIh8EqvmRAO8/Su0dUFYMnYlrWmG8dRvLLg5JxUbB/QM1QRO494JmPLKTXSDvK9Sglpkcs+9G3PrDDqEEZE5XfpVHs/uri3Lux9VdUeH7DABLPadSMLS26g+DgvE6WqM604BtgkX/Mqv6b3aXjeq7Z6z99sku3JpLkVNDdwg+BJsPlgy3HHZBwED9wNAI7KqLx9ShPy5iLvbtUmAbBYVs/v2Udw865oTQdYKcq7KERKHUhT2LMx2qMxF09kiTJfmnKSUU40dH4i/dMfanzirRsCCNjFyeyS12l9Efp3nIj16ZRWvK86aREqG4E0mM00tqy6odDzDsgVIN+CBajW4x9AP9MPPFWs6VMFRT7TT20Nk3Flc3aqfAh8mVj30+4GgMvur61+FaHs/3BAIa/7muiFnJ6eiar72tjebpJN0qg3Jr5fX4dBHbrxuB7gybbrOJNmsNGQL9rGOHQHSi4rTiJ7CuVwr6iuZy/8rO39D1DITmIPHwAA</t>
+          <t>Fh0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyV2Ssi0Jow14k0KUFAWSqqy8FMPdkbj1XtidWUl8S4EEKdIURVE4RXpFn1IUqGu0CZDavfyXwJLdp/6Fnrns7C5JxVrVEKydc74zc+bMuc0IvXMV+MYFiakXhXuVes2qGCR0ItcLz/cqCTur1h9W3rFR78oh/hGOcUAYgA2QCunuFfX2KnPGFrumeXl5Wbts1qL43GxYVt18PBxMnDkJcNULKcOhQypayn27VMVGHTcYEoZdzLCU3Kv0J/1ah3hOF2hDHOJzEtfaCfVCQmkvZB7zCOWSMcGMdLrD78mN2Y3aw1odmWv0DNlOPN+VuAJS0hUOliVTLyB2w6pvV63tarM+tXZ2rebu1k7t0fb2e6mgBqIBpmxC4gvPEYQJw8FCiFvbzbq1YzW3dpC5EQRzZQaw0ch3x+TCo8TtEN+npSxiqgNsOQx2Xc6YFjJzsmqi+6twEOPFfOoxn5RTYzxsG0GodMkmsdF+FBMH7HcvlQ7J5ShWZp0uBsCdzr2YLbt4WXquY0ri0YIbqZyojbpRyFo+idnxAs6auOAKwLBZnBBk3sLMhLoedeDbCxPi2mfYp3mhAhOdRPETusAOOYQ4Nvkcl6EfYRccjnmUeU626BoDHcXRAmaExduR7+7DrAq8gaFn7odgYr5sO4qeZNptYiJxquJ84UwDzFL4Gh1N5tHlKPSXk2RGndibEbfbTtEbeYgHpJLuJJRFAWiRkZCk5ShL+AcBuEpGXeJ4AfaPfDAitZswS4GAWgmLzjzWifwkCGmq0woVncCOpuRK71CP0QgON+RGj8J+mOKlmTeyigLj6FKvuc4QRsiRW9TRJ7LOWUV3gaacY50hToTvct/zoT7kzyJHLXrFZE4I2+gSkoN4KtznFcdu+T4ysyECtwTXBjVsC4pGVfxMLWtX/MCymo16oXs7LmWiwyQYzSB8L8SG7DrwVkgItuC3fRw+AeqJx+aHrVT1DRwkN3wrfp2HIFAXPl4KsjZKnob6oeMnLpHx3w/PhEdy3eSp3MpGa6QBhLSNcLicLheQhqm3y+BjrwKFeZeyGEp/xXaiJGTxkicKZCro22RoMgvFAti/s8xZTH6YQMex3E9CpxO5d1/NldY5Dj12dw2jJJbZ7+4iwno8ESa0S3hKETn+zvJOmT3RuBQ8CEkQhZ5zd2uDkbn27j02QtOourMEkfF1Z7wPZVxWOR7rdxaLoV2EulZqmRalkeMJZ1Xh4ebkzVtCpkvOcOJDq8agop7rVLtKRi36ZBWTJ6Hj2E8Tns0bYQqdsOMGNQd6Bd7t1Zwo4AQTGtCTCTLzeN7wOKQXng9weJ5AS6Hzyipdp1teDqcxDinfju4gVjLvZhBK85TsbGyZvEaJcASZvCLgInMFh6YkWEQx9odgGG9fuZ1qj6DzGGI2VyMoZT5xUiObmaiWKmqWKv42mKhJchs84FWaXCEKEN+L7LkzTEZDfJdDCEu/g31vFsusmlbuTTw4sKwXTPMv31zJvjA9A7h3QbH9LlnyZjwbKLpw2XrKkA7ME6k9GW9tNx5YzQY0MnyMxI7HBPtGD4KZEaMfXhDKAhDbNcaEei58edjfNd4lM+JBERQmUmWotHReDu2neV6o0gJ9i5QiANqLcw/KyDpQczIB+5Tg2F/mgHKrg8gB3M2P/339m+evXnx+8/HTN19+8N9//OrVP392/exD+Lj569+uP/ml3KYEoyme+UQoNG1vb8PtDPxMkxA3rik6YTdxmKCdnooGWI+RuseJQafX7xwM2iKfaGIqLkuKya+IyyjJhhO5CbGQOFIz9QQJsadpflLjAjdXomx+ZbsgRXSef5ugtMXrl5+/fvnnW6WVwbJeq76z86Bab7y1FYPLb30Np1uxQaEGcPBW1XpQbTRy4BUMGssCoO3Ud21xt240rbrO5a525E2gVZaaaYrPzRU5SerI9ki7QH6cMoXjTyFENFuGQm6gXPTLn7z5y9MCSllXUYqzgHKijeGLmelATH04nhqT0fG40zOmvQn3k4yXw8nJvwGsVtfxVHCqMEyw/x0DijsUM6MCF6CKEZ0ZBDtzYwmRmIvDgrNtosqF7jnlqpYHcZQs5InkBDLqBqTOJhslNuQawRP2XEs6GWsDXOp6/fcvNgmojXSzhlY/d+RpqMCRpBxfRe1n/3r11UevXry4ef7z669+VJhBraNfAcDPIZryQ+32kPJUvVmhoJOJMOYT6/u5+qKI/CJ1FHkho3b9obhDqREC0TqfTfxG/QBKnphY2AvoKxT0Lqa9K6YC2z5EZpEAei4wVNsou2pqgszhmV3/89vf3fz6i5tPn7/56E/XH//x+pNPX7/8/Ztnf5BRd/P0+c1Pn6ksv1oIhC78AiubQEM8hzgGj0aD127j6/d/YYQRM6DlMBKRkb5+/7PcZFxR0ZxkM0NLpxUpqrAGzQtzOSOnitahIKdFZAPQ4SWsqRGqiEULz8kWea/Kp+JxJxjf6k+rCSVGBN3Ut2EnRXAmfFc5JSJL6tEjq1FvKK7Uhm9hhmnO9Ad+NIMmI2WI94YVSEHqmwUyrFjvYDBqtwYZRCoxil0SczeUHyhtKXlJ6dN0lLpajgJcaPycxOdPRGuwdZaeOZfGTPXUctZyefrb/FRRQKBOEseyIQrV0/0kWUAznL7I3c4Xr5S5/vdQ9qr5jjgb97tFPoxzXCiERTYnCL5ITYol01Sf8mcd2c4ectNkQ+AVXjbBHOp1XnZaF9BXxibPO704juKNySfjpLAhdNKQUczM4hojzlR23W52VikhTXj6Q9781A6jLvEJK/d0bWbSw+ji3rJw9mVF+3Tku8qY5a4e2izZBPn3e+4o/+/zvXS2VhxDY8Xf+0q/t6cX1zHcd0tqI7ciBPkNEFZXD+L7XkzZY54J1JeknGrKqexQH/MLl/wQ41N7SxEAYOZnNwtqpqHL5F9RIn/gBV7Ja6GVxndxErDlYiFbuH45T+Gl5ZBcQYOZmwGS4uwHUDbkO0qZ2aTDQi7V8vztknrnc1ZWsUczTFwys6rOjDSqW661Xd0hpFmt1+F/7DQalvWAv3yqySFzeOSy5CJmemDZXzft/wEAkSb/Fh0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -806,37 +806,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{130D613E-7E14-49CE-8719-3901DDEE27A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>